--- a/MSB TrBlend_template.xlsx
+++ b/MSB TrBlend_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\K-faktor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F9810F-E192-41E3-A447-ABE33F32DC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C9010-24C0-4163-9C2E-97521725E942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" tabRatio="764" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3432,5943 +3432,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 1, 80-FT-312 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1600" b="1" i="0" strike="noStrike" normalizeH="0" baseline="0"/>
-              <a:t>Johan Sverdrup</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO" baseline="0"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 1, FT-512'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 1, FT-512'!$A$8:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 1, FT-512'!$G$8:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="25"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D145-4C2B-8308-AB3F8C26EEF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 1, FT-512'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 1, FT-512'!$A$8:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 1, FT-512'!$H$8:$H$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="25"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D145-4C2B-8308-AB3F8C26EEF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 1, FT-512'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 1, FT-512'!$A$8:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 1, FT-512'!$I$8:$I$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="25"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D145-4C2B-8308-AB3F8C26EEF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 1, FT-512'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 1, FT-512'!$A$8:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 1, FT-512'!$J$8:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="25"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D145-4C2B-8308-AB3F8C26EEF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2310"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 10, 80-FT-402 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1600" b="1" i="0" strike="noStrike" normalizeH="0" baseline="0"/>
-              <a:t>Johan Sverdrup</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 10, FT-602'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 10, FT-602'!$A$8:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 10, FT-602'!$G$8:$G$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B91-4FE7-961E-3AA1A4D9AA6C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 10, FT-602'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 10, FT-602'!$A$8:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 10, FT-602'!$H$8:$H$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B91-4FE7-961E-3AA1A4D9AA6C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 10, FT-602'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 10, FT-602'!$A$8:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 10, FT-602'!$I$8:$I$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7B91-4FE7-961E-3AA1A4D9AA6C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 10, FT-602'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 10, FT-602'!$A$8:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 10, FT-602'!$J$8:$J$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7B91-4FE7-961E-3AA1A4D9AA6C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2312"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 11, 80-FT-412 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1600" b="1" i="0" strike="noStrike" normalizeH="0" baseline="0"/>
-              <a:t>Johan Sverdrup</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 11, FT-612'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 11, FT-612'!$A$8:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 11, FT-612'!$G$8:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C41-4069-9E29-BF2770003BDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 11, FT-612'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 11, FT-612'!$A$8:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 11, FT-612'!$H$8:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1C41-4069-9E29-BF2770003BDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 11, FT-612'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 11, FT-612'!$A$8:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 11, FT-612'!$I$8:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1C41-4069-9E29-BF2770003BDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 11, FT-612'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 11, FT-612'!$A$8:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 11, FT-612'!$J$8:$J$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1C41-4069-9E29-BF2770003BDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2312"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 2, 80-FT-322 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1600" b="1" i="0" strike="noStrike" normalizeH="0" baseline="0"/>
-              <a:t>Johan Sverdrup</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 2, FT-522'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 2, FT-522'!$A$8:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 2, FT-522'!$G$8:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-926A-4B32-8C77-00C7E8A4F750}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 2, FT-522'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 2, FT-522'!$A$8:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 2, FT-522'!$H$8:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-926A-4B32-8C77-00C7E8A4F750}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 2, FT-522'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 2, FT-522'!$A$8:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 2, FT-522'!$I$8:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-926A-4B32-8C77-00C7E8A4F750}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 2, FT-522'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 2, FT-522'!$A$8:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 2, FT-522'!$J$8:$J$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-926A-4B32-8C77-00C7E8A4F750}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2310"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 3, 80-FT-332 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1600" b="1" i="0" strike="noStrike" normalizeH="0" baseline="0"/>
-              <a:t>Johan Sverdrup</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 3, FT-532'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 3, FT-532'!$A$8:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 3, FT-532'!$G$8:$G$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="16"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DECE-4A7D-802B-C0FF151AE801}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 3, FT-532'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 3, FT-532'!$A$8:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 3, FT-532'!$H$8:$H$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="16"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DECE-4A7D-802B-C0FF151AE801}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 3, FT-532'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 3, FT-532'!$A$8:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 3, FT-532'!$I$8:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="16"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DECE-4A7D-802B-C0FF151AE801}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 3, FT-532'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 3, FT-532'!$A$8:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 3, FT-532'!$J$8:$J$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="16"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DECE-4A7D-802B-C0FF151AE801}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2310"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 4, 80-FT-342 Johan Sverdrup</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 4, FT-542'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 4, FT-542'!$A$8:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 4, FT-542'!$G$8:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0C4-4E74-8A07-B6C8344B4D5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 4, FT-542'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 4, FT-542'!$A$8:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 4, FT-542'!$H$8:$H$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0C4-4E74-8A07-B6C8344B4D5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 4, FT-542'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 4, FT-542'!$A$8:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 4, FT-542'!$I$8:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B0C4-4E74-8A07-B6C8344B4D5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 4, FT-542'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 4, FT-542'!$A$8:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 4, FT-542'!$J$8:$J$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B0C4-4E74-8A07-B6C8344B4D5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2312"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 5, 80-FT-352 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1600" b="1" i="0" strike="noStrike" normalizeH="0" baseline="0"/>
-              <a:t>Johan Sverdrup</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO" baseline="0"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 5, FT-552'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 5, FT-552'!$A$8:$A$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 5, FT-552'!$G$8:$G$127</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="120"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6BCB-4B74-9B47-12CC7DED311C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 5, FT-552'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 5, FT-552'!$A$8:$A$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 5, FT-552'!$H$8:$H$127</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="120"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6BCB-4B74-9B47-12CC7DED311C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 5, FT-552'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 5, FT-552'!$A$8:$A$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 5, FT-552'!$I$8:$I$127</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="120"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6BCB-4B74-9B47-12CC7DED311C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 5, FT-552'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 5, FT-552'!$A$8:$A$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 5, FT-552'!$J$8:$J$127</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="120"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6BCB-4B74-9B47-12CC7DED311C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2312"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 6, 80-FT-362 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1600" b="1" i="0" strike="noStrike" normalizeH="0" baseline="0"/>
-              <a:t>Johan Sverdrup</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 6, FT-562'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 6, FT-562'!$A$8:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 6, FT-562'!$G$8:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-779B-4413-905F-31DB508F2952}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 6, FT-562'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 6, FT-562'!$A$8:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 6, FT-562'!$H$8:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-779B-4413-905F-31DB508F2952}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 6, FT-562'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 6, FT-562'!$A$8:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 6, FT-562'!$I$8:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-779B-4413-905F-31DB508F2952}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 6, FT-562'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 6, FT-562'!$A$8:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 6, FT-562'!$J$8:$J$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-779B-4413-905F-31DB508F2952}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2310"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 7, 80-FT-372 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1600" b="1" i="0" strike="noStrike" normalizeH="0" baseline="0"/>
-              <a:t>Johan Sverdrup</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 7, FT-572'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 7, FT-572'!$A$8:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 7, FT-572'!$G$8:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9EA-49CD-82FB-1E2BCCEA603D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 7, FT-572'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 7, FT-572'!$A$8:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 7, FT-572'!$H$8:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C9EA-49CD-82FB-1E2BCCEA603D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 7, FT-572'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 7, FT-572'!$A$8:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 7, FT-572'!$I$8:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C9EA-49CD-82FB-1E2BCCEA603D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 7, FT-572'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 7, FT-572'!$A$8:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 7, FT-572'!$J$8:$J$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C9EA-49CD-82FB-1E2BCCEA603D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2310"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 8, 80-FT-382 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1600" b="1" i="0" strike="noStrike" normalizeH="0" baseline="0"/>
-              <a:t>Johan Sverdrup</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 8, FT-582'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 8, FT-582'!$A$8:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 8, FT-582'!$G$8:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4027-4422-8A83-42827F5C2EB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 8, FT-582'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 8, FT-582'!$A$8:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 8, FT-582'!$H$8:$H$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4027-4422-8A83-42827F5C2EB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 8, FT-582'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 8, FT-582'!$A$8:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 8, FT-582'!$I$8:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4027-4422-8A83-42827F5C2EB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 8, FT-582'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 8, FT-582'!$A$8:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 8, FT-582'!$J$8:$J$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4027-4422-8A83-42827F5C2EB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2310"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Løp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> 9, 80-FT-392 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" sz="1600" b="1" i="0" strike="noStrike" normalizeH="0" baseline="0"/>
-              <a:t>Johan Sverdrup</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 9, FT-592'!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>K-faktor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 9, FT-592'!$A$8:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 9, FT-592'!$G$8:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F27-4F7A-B81F-56933A38F559}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 9, FT-592'!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ref. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 9, FT-592'!$A$8:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 9, FT-592'!$H$8:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0F27-4F7A-B81F-56933A38F559}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 9, FT-592'!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 9, FT-592'!$A$8:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 9, FT-592'!$I$8:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0F27-4F7A-B81F-56933A38F559}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Løp 9, FT-592'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maks. Kf.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Løp 9, FT-592'!$A$8:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Løp 9, FT-592'!$J$8:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0F27-4F7A-B81F-56933A38F559}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="594740696"/>
-        <c:axId val="594737416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="594740696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="51000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594737416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="594737416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2310"/>
-          <c:min val="2300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:alpha val="54000"/>
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>K-Faktor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="594740696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1312" displayName="Table1312" ref="A7:K32" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
   <autoFilter ref="A7:K32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -9945,7 +4008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K32" sqref="A8:K32"/>
     </sheetView>
   </sheetViews>
@@ -11161,9 +5224,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11172,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:K36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12387,9 +6449,8 @@
     <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12398,7 +6459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -13610,9 +7671,8 @@
     <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13621,7 +7681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -14833,9 +8893,8 @@
     <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14844,7 +8903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="A8:K23"/>
     </sheetView>
   </sheetViews>
@@ -16056,9 +10115,8 @@
     <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -16067,7 +10125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L1951"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="A8:K28"/>
     </sheetView>
   </sheetViews>
@@ -41447,9 +35505,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -41458,7 +35515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L339"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:K127"/>
     </sheetView>
   </sheetViews>
@@ -45882,9 +39939,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -45893,7 +39949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:K24"/>
     </sheetView>
   </sheetViews>
@@ -47108,9 +41164,8 @@
     <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -47119,8 +41174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48334,9 +42389,8 @@
     <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -48345,7 +42399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:K25"/>
     </sheetView>
   </sheetViews>
@@ -49561,9 +43615,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -49572,7 +43625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:K14"/>
     </sheetView>
   </sheetViews>
@@ -50784,9 +44837,8 @@
     <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>